--- a/alapterv.xlsx
+++ b/alapterv.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20406"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20407"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\php_raktar\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\Demény Máté PHP\php_raktar\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D32BA326-0A8C-4A7A-999B-9D32BB25499A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D476AEF-BD81-41BF-8476-E837176518E2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21495" windowHeight="7980" xr2:uid="{F1B74C8D-C090-4796-A63E-171B56877D3C}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="20">
   <si>
     <t>stores</t>
   </si>
@@ -64,6 +64,27 @@
   </si>
   <si>
     <t>price</t>
+  </si>
+  <si>
+    <t>Nagytábla</t>
+  </si>
+  <si>
+    <t>store(név)</t>
+  </si>
+  <si>
+    <t>row(sor)(név)</t>
+  </si>
+  <si>
+    <t>column(név)</t>
+  </si>
+  <si>
+    <t>product(név)</t>
+  </si>
+  <si>
+    <t>id(product)</t>
+  </si>
+  <si>
+    <t>Store tábla</t>
   </si>
 </sst>
 </file>
@@ -416,18 +437,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7A71543-D9CF-4D5B-81A6-A731EC05457C}">
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:I19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+      <selection activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -438,7 +464,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -449,7 +475,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -460,7 +486,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -471,39 +497,89 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>18</v>
+      </c>
+      <c r="B15" t="s">
+        <v>14</v>
+      </c>
+      <c r="C15" t="s">
+        <v>15</v>
+      </c>
+      <c r="D15" t="s">
+        <v>6</v>
+      </c>
+      <c r="E15" t="s">
+        <v>16</v>
+      </c>
+      <c r="F15" t="s">
+        <v>7</v>
+      </c>
+      <c r="G15" t="s">
+        <v>17</v>
+      </c>
+      <c r="H15" t="s">
+        <v>9</v>
+      </c>
+      <c r="I15" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>1</v>
+      </c>
+      <c r="B19" t="s">
+        <v>2</v>
+      </c>
+      <c r="C19" t="s">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
